--- a/Code/Results/Cases/Case_8_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025594750078125</v>
+        <v>1.019692134626723</v>
       </c>
       <c r="D2">
-        <v>1.0406851153761</v>
+        <v>1.035682533331898</v>
       </c>
       <c r="E2">
-        <v>1.028247052126861</v>
+        <v>1.023231196732102</v>
       </c>
       <c r="F2">
-        <v>1.042868524460477</v>
+        <v>1.038855628042334</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053255807653651</v>
+        <v>1.050475837731288</v>
       </c>
       <c r="J2">
-        <v>1.047035976397972</v>
+        <v>1.041299397248623</v>
       </c>
       <c r="K2">
-        <v>1.051605311907788</v>
+        <v>1.046666167141382</v>
       </c>
       <c r="L2">
-        <v>1.039326402124219</v>
+        <v>1.034376100144252</v>
       </c>
       <c r="M2">
-        <v>1.053761271296455</v>
+        <v>1.049798935679158</v>
       </c>
       <c r="N2">
-        <v>1.048522887581162</v>
+        <v>1.032753145117564</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051120753714412</v>
+        <v>1.04798486947871</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047559652211803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044076000666763</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024177196945815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029996389172775</v>
+        <v>1.023539218863406</v>
       </c>
       <c r="D3">
-        <v>1.043671640031969</v>
+        <v>1.038189725354172</v>
       </c>
       <c r="E3">
-        <v>1.031809264550564</v>
+        <v>1.02629758318166</v>
       </c>
       <c r="F3">
-        <v>1.045918394416802</v>
+        <v>1.041524872252437</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054488215177432</v>
+        <v>1.051418583934578</v>
       </c>
       <c r="J3">
-        <v>1.049701432032662</v>
+        <v>1.043408120663395</v>
       </c>
       <c r="K3">
-        <v>1.053774639308177</v>
+        <v>1.048356211395117</v>
       </c>
       <c r="L3">
-        <v>1.042050695643929</v>
+        <v>1.036604685098028</v>
       </c>
       <c r="M3">
-        <v>1.055995611052165</v>
+        <v>1.051652635158738</v>
       </c>
       <c r="N3">
-        <v>1.051192128468586</v>
+        <v>1.033935399189195</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052889056180367</v>
+        <v>1.049451931850462</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049090888070972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045268071353882</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024552885839191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032790538117917</v>
+        <v>1.025985178311047</v>
       </c>
       <c r="D4">
-        <v>1.045571756120765</v>
+        <v>1.039787968624992</v>
       </c>
       <c r="E4">
-        <v>1.034075715870976</v>
+        <v>1.02825247332591</v>
       </c>
       <c r="F4">
-        <v>1.047862143002925</v>
+        <v>1.04322924620217</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055262468389288</v>
+        <v>1.052010277195488</v>
       </c>
       <c r="J4">
-        <v>1.051391090527535</v>
+        <v>1.044746753938564</v>
       </c>
       <c r="K4">
-        <v>1.055149605060411</v>
+        <v>1.049428780542393</v>
       </c>
       <c r="L4">
-        <v>1.043779562127447</v>
+        <v>1.038021466537423</v>
       </c>
       <c r="M4">
-        <v>1.057415294014931</v>
+        <v>1.05283249275752</v>
       </c>
       <c r="N4">
-        <v>1.052884186472328</v>
+        <v>1.034685897301824</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054012620337776</v>
+        <v>1.05038569803745</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.0500639674984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046027425327014</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024788835240398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033958138087279</v>
+        <v>1.027007721819547</v>
       </c>
       <c r="D5">
-        <v>1.046368965900976</v>
+        <v>1.040459335715527</v>
       </c>
       <c r="E5">
-        <v>1.035024816537136</v>
+        <v>1.029071682967891</v>
       </c>
       <c r="F5">
-        <v>1.048676850644489</v>
+        <v>1.04394421322056</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055586186474194</v>
+        <v>1.052257766767065</v>
       </c>
       <c r="J5">
-        <v>1.052098578528138</v>
+        <v>1.045307710577823</v>
       </c>
       <c r="K5">
-        <v>1.055726807044955</v>
+        <v>1.049879805055499</v>
       </c>
       <c r="L5">
-        <v>1.044503652854581</v>
+        <v>1.038615324933106</v>
       </c>
       <c r="M5">
-        <v>1.058010467848393</v>
+        <v>1.053327646103975</v>
       </c>
       <c r="N5">
-        <v>1.053592679187042</v>
+        <v>1.035000393586088</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054483651757661</v>
+        <v>1.050777573330109</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050479158595124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046354138558123</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02488822430916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034160086944895</v>
+        <v>1.027184110885327</v>
       </c>
       <c r="D6">
-        <v>1.046509599790993</v>
+        <v>1.040577929523728</v>
       </c>
       <c r="E6">
-        <v>1.035190023868028</v>
+        <v>1.029213941665927</v>
       </c>
       <c r="F6">
-        <v>1.048818669511786</v>
+        <v>1.044068534367268</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055644683119463</v>
+        <v>1.052302795773111</v>
       </c>
       <c r="J6">
-        <v>1.052223372385603</v>
+        <v>1.045406708106251</v>
       </c>
       <c r="K6">
-        <v>1.055830472779408</v>
+        <v>1.049961377326539</v>
       </c>
       <c r="L6">
-        <v>1.044631071693069</v>
+        <v>1.038719743173538</v>
       </c>
       <c r="M6">
-        <v>1.058115417266767</v>
+        <v>1.053415053550457</v>
       </c>
       <c r="N6">
-        <v>1.053717650266098</v>
+        <v>1.035055895756601</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054566710609884</v>
+        <v>1.050846749492115</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.05056107942564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04642133772979</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024907103485101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032824106480327</v>
+        <v>1.026042982163169</v>
       </c>
       <c r="D7">
-        <v>1.045601902551632</v>
+        <v>1.039836275890579</v>
       </c>
       <c r="E7">
-        <v>1.034105668211218</v>
+        <v>1.028305879608338</v>
       </c>
       <c r="F7">
-        <v>1.047887702021199</v>
+        <v>1.0432699941969</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055278874493863</v>
+        <v>1.052040098054177</v>
       </c>
       <c r="J7">
-        <v>1.051418073951202</v>
+        <v>1.044797322058734</v>
       </c>
       <c r="K7">
-        <v>1.055176598136695</v>
+        <v>1.049473710096905</v>
       </c>
       <c r="L7">
-        <v>1.043806312396979</v>
+        <v>1.038071380272309</v>
       </c>
       <c r="M7">
-        <v>1.057437758936066</v>
+        <v>1.052869961952251</v>
       </c>
       <c r="N7">
-        <v>1.052911208215552</v>
+        <v>1.034765815976022</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054030399491145</v>
+        <v>1.050415351992761</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050102889637213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046081097348855</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024804927195125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027116604547794</v>
+        <v>1.021113924771507</v>
       </c>
       <c r="D8">
-        <v>1.041725881771971</v>
+        <v>1.03662788913399</v>
       </c>
       <c r="E8">
-        <v>1.029481129593257</v>
+        <v>1.024382138004327</v>
       </c>
       <c r="F8">
-        <v>1.043924094149101</v>
+        <v>1.039837897126881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053692550841653</v>
+        <v>1.050863372335194</v>
       </c>
       <c r="J8">
-        <v>1.047966422784872</v>
+        <v>1.042126895105107</v>
       </c>
       <c r="K8">
-        <v>1.052368824339069</v>
+        <v>1.047333557309237</v>
       </c>
       <c r="L8">
-        <v>1.040276035830356</v>
+        <v>1.035241663480083</v>
       </c>
       <c r="M8">
-        <v>1.054540224877129</v>
+        <v>1.050503980213667</v>
       </c>
       <c r="N8">
-        <v>1.049454655308655</v>
+        <v>1.033373510037154</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051737234081843</v>
+        <v>1.048542859029627</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048122129482495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044572851729089</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024341002136234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016595649543247</v>
+        <v>1.011964692823399</v>
       </c>
       <c r="D9">
-        <v>1.034605475412908</v>
+        <v>1.030685034956585</v>
       </c>
       <c r="E9">
-        <v>1.020994848174848</v>
+        <v>1.017122223161947</v>
       </c>
       <c r="F9">
-        <v>1.036677834180174</v>
+        <v>1.033529473809328</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050694199290411</v>
+        <v>1.0485779642054</v>
       </c>
       <c r="J9">
-        <v>1.041575682583096</v>
+        <v>1.037101908084464</v>
       </c>
       <c r="K9">
-        <v>1.047160988944954</v>
+        <v>1.043299140700722</v>
       </c>
       <c r="L9">
-        <v>1.033756240637738</v>
+        <v>1.029943480728806</v>
       </c>
       <c r="M9">
-        <v>1.049202603182211</v>
+        <v>1.046101012233486</v>
       </c>
       <c r="N9">
-        <v>1.043054839522765</v>
+        <v>1.030575362115523</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04751291697457</v>
+        <v>1.045058235188281</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044436777923186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041716872278663</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023430334034616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009361535259254</v>
+        <v>1.005834615715791</v>
       </c>
       <c r="D10">
-        <v>1.029769101738598</v>
+        <v>1.026777011780948</v>
       </c>
       <c r="E10">
-        <v>1.015207085546443</v>
+        <v>1.012328369701625</v>
       </c>
       <c r="F10">
-        <v>1.031821807299045</v>
+        <v>1.02941910485795</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048627792959435</v>
+        <v>1.047084575936672</v>
       </c>
       <c r="J10">
-        <v>1.037208590104069</v>
+        <v>1.033818639386342</v>
       </c>
       <c r="K10">
-        <v>1.043620892677776</v>
+        <v>1.040679063305506</v>
       </c>
       <c r="L10">
-        <v>1.02930709446567</v>
+        <v>1.026478543029702</v>
       </c>
       <c r="M10">
-        <v>1.045639334407774</v>
+        <v>1.043276755532207</v>
       </c>
       <c r="N10">
-        <v>1.038681545271505</v>
+        <v>1.028965547488818</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044743900609442</v>
+        <v>1.042874201438071</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041950400124169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03988270737308</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02285642019721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006953387053569</v>
+        <v>1.003923049328531</v>
       </c>
       <c r="D11">
-        <v>1.028415575138698</v>
+        <v>1.025823159106288</v>
       </c>
       <c r="E11">
-        <v>1.013414712769191</v>
+        <v>1.010985613027409</v>
       </c>
       <c r="F11">
-        <v>1.030857170204735</v>
+        <v>1.028783126109296</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048204993897806</v>
+        <v>1.046912966877756</v>
       </c>
       <c r="J11">
-        <v>1.036039730935062</v>
+        <v>1.033133530677113</v>
       </c>
       <c r="K11">
-        <v>1.042820799512776</v>
+        <v>1.040273983771979</v>
       </c>
       <c r="L11">
-        <v>1.028088005094087</v>
+        <v>1.025703288425884</v>
       </c>
       <c r="M11">
-        <v>1.045219718761708</v>
+        <v>1.043181909404422</v>
       </c>
       <c r="N11">
-        <v>1.037511026188408</v>
+        <v>1.029022217207698</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04484485087479</v>
+        <v>1.043232968799256</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041417268313412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039632131508273</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022884173305151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006342735510229</v>
+        <v>1.003421191981271</v>
       </c>
       <c r="D12">
-        <v>1.028191254079595</v>
+        <v>1.025681293820965</v>
       </c>
       <c r="E12">
-        <v>1.013026561005461</v>
+        <v>1.010690078060795</v>
       </c>
       <c r="F12">
-        <v>1.030920873412704</v>
+        <v>1.028917286231036</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048229676330526</v>
+        <v>1.046983807577041</v>
       </c>
       <c r="J12">
-        <v>1.035881064197206</v>
+        <v>1.033081463270744</v>
       </c>
       <c r="K12">
-        <v>1.042797576101999</v>
+        <v>1.040332482947143</v>
       </c>
       <c r="L12">
-        <v>1.027908376845344</v>
+        <v>1.025615299345263</v>
       </c>
       <c r="M12">
-        <v>1.045478723453491</v>
+        <v>1.04351068295053</v>
       </c>
       <c r="N12">
-        <v>1.037352134125585</v>
+        <v>1.029184527149835</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045373891795591</v>
+        <v>1.04381771661205</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041400848875348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039673490975926</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022973374899433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007100277616586</v>
+        <v>1.003960090507642</v>
       </c>
       <c r="D13">
-        <v>1.028847289688758</v>
+        <v>1.026153256508485</v>
       </c>
       <c r="E13">
-        <v>1.013714817359423</v>
+        <v>1.011168551345748</v>
       </c>
       <c r="F13">
-        <v>1.031811325401382</v>
+        <v>1.029661392318073</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048620337612847</v>
+        <v>1.047246757398788</v>
       </c>
       <c r="J13">
-        <v>1.036515617544563</v>
+        <v>1.033505780962157</v>
       </c>
       <c r="K13">
-        <v>1.043399680117598</v>
+        <v>1.040753575524705</v>
       </c>
       <c r="L13">
-        <v>1.028540728948254</v>
+        <v>1.026041536360933</v>
       </c>
       <c r="M13">
-        <v>1.04631135855461</v>
+        <v>1.044199363341226</v>
       </c>
       <c r="N13">
-        <v>1.037987588611479</v>
+        <v>1.029379988366148</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046307187851154</v>
+        <v>1.04463759942517</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041824078717436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039968490702478</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023117593120622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008249350027096</v>
+        <v>1.004814815094057</v>
       </c>
       <c r="D14">
-        <v>1.029704865814879</v>
+        <v>1.026767559166568</v>
       </c>
       <c r="E14">
-        <v>1.014683286225862</v>
+        <v>1.011860943447356</v>
       </c>
       <c r="F14">
-        <v>1.032807524512585</v>
+        <v>1.030462065657903</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04905884835098</v>
+        <v>1.047522241963186</v>
       </c>
       <c r="J14">
-        <v>1.03731809792355</v>
+        <v>1.034024024808762</v>
       </c>
       <c r="K14">
-        <v>1.044103786428604</v>
+        <v>1.041218068440951</v>
       </c>
       <c r="L14">
-        <v>1.029350122763165</v>
+        <v>1.026579273552322</v>
       </c>
       <c r="M14">
-        <v>1.047152364799954</v>
+        <v>1.044847749131318</v>
       </c>
       <c r="N14">
-        <v>1.03879120860465</v>
+        <v>1.029536135815165</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047144337824848</v>
+        <v>1.045322721449999</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042323308163704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040298444206203</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023246494621188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008836180627005</v>
+        <v>1.005261753056804</v>
       </c>
       <c r="D15">
-        <v>1.030117109839116</v>
+        <v>1.027065281555572</v>
       </c>
       <c r="E15">
-        <v>1.015162688763468</v>
+        <v>1.012210913741405</v>
       </c>
       <c r="F15">
-        <v>1.033249035421864</v>
+        <v>1.030811054430289</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049252398191844</v>
+        <v>1.047640661797744</v>
       </c>
       <c r="J15">
-        <v>1.037697034815778</v>
+        <v>1.034267488781073</v>
       </c>
       <c r="K15">
-        <v>1.044423664195307</v>
+        <v>1.041425023450409</v>
       </c>
       <c r="L15">
-        <v>1.029733842323141</v>
+        <v>1.026835497200285</v>
       </c>
       <c r="M15">
-        <v>1.047501428708048</v>
+        <v>1.045105571524998</v>
       </c>
       <c r="N15">
-        <v>1.03917068363073</v>
+        <v>1.029593129772436</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047457579653257</v>
+        <v>1.045563893503926</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042555283239104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040451160308078</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023295745313236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011756803858715</v>
+        <v>1.007560994195277</v>
       </c>
       <c r="D16">
-        <v>1.032044661683233</v>
+        <v>1.028487162759071</v>
       </c>
       <c r="E16">
-        <v>1.017476957311577</v>
+        <v>1.013959700239165</v>
       </c>
       <c r="F16">
-        <v>1.035167220279347</v>
+        <v>1.032319080003075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050066953837195</v>
+        <v>1.048132958562096</v>
       </c>
       <c r="J16">
-        <v>1.039436287448694</v>
+        <v>1.035401968344959</v>
       </c>
       <c r="K16">
-        <v>1.045823427397089</v>
+        <v>1.042325215945479</v>
       </c>
       <c r="L16">
-        <v>1.031501897584754</v>
+        <v>1.028045449461418</v>
       </c>
       <c r="M16">
-        <v>1.048894379006494</v>
+        <v>1.046093294255683</v>
       </c>
       <c r="N16">
-        <v>1.04091240620188</v>
+        <v>1.029828213955186</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048520069501675</v>
+        <v>1.046306028426684</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043548079373747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041091059155318</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023465378984839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013397719902746</v>
+        <v>1.00890772716161</v>
       </c>
       <c r="D17">
-        <v>1.033076363805487</v>
+        <v>1.029279099528328</v>
       </c>
       <c r="E17">
-        <v>1.01874867117117</v>
+        <v>1.014968014109687</v>
       </c>
       <c r="F17">
-        <v>1.036113454124804</v>
+        <v>1.033070411848297</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050460824400854</v>
+        <v>1.048378936369143</v>
       </c>
       <c r="J17">
-        <v>1.040350604072755</v>
+        <v>1.036027846480073</v>
       </c>
       <c r="K17">
-        <v>1.046528277093617</v>
+        <v>1.042792523292715</v>
       </c>
       <c r="L17">
-        <v>1.032435764553387</v>
+        <v>1.028718592795057</v>
       </c>
       <c r="M17">
-        <v>1.049516586802442</v>
+        <v>1.046522421095903</v>
       </c>
       <c r="N17">
-        <v>1.041828021260421</v>
+        <v>1.029992954590722</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048883624893658</v>
+        <v>1.046516734481459</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044048984373153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041424273057493</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02353394155089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014067008188499</v>
+        <v>1.00950091858316</v>
       </c>
       <c r="D18">
-        <v>1.033398573807665</v>
+        <v>1.029540486223152</v>
       </c>
       <c r="E18">
-        <v>1.019214614283241</v>
+        <v>1.015371035223782</v>
       </c>
       <c r="F18">
-        <v>1.036252376873834</v>
+        <v>1.033158256735965</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050509272073345</v>
+        <v>1.048395807159313</v>
       </c>
       <c r="J18">
-        <v>1.040608915675896</v>
+        <v>1.036209736155362</v>
       </c>
       <c r="K18">
-        <v>1.046664674875628</v>
+        <v>1.042868076498771</v>
       </c>
       <c r="L18">
-        <v>1.032709720918716</v>
+        <v>1.028929616441483</v>
       </c>
       <c r="M18">
-        <v>1.049473371815591</v>
+        <v>1.046428170735419</v>
       </c>
       <c r="N18">
-        <v>1.042086699695667</v>
+        <v>1.030013393021252</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04861339673923</v>
+        <v>1.046205666692823</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044133904458038</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041465013790458</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02349856129887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013885569956034</v>
+        <v>1.009409509026215</v>
       </c>
       <c r="D19">
-        <v>1.033108528333936</v>
+        <v>1.029327810286634</v>
       </c>
       <c r="E19">
-        <v>1.018980530842796</v>
+        <v>1.015225564638011</v>
       </c>
       <c r="F19">
-        <v>1.035675717542266</v>
+        <v>1.032640964973195</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050268262505119</v>
+        <v>1.048211283004387</v>
       </c>
       <c r="J19">
-        <v>1.040302445464474</v>
+        <v>1.035989111473719</v>
       </c>
       <c r="K19">
-        <v>1.04631761679217</v>
+        <v>1.042596871679414</v>
       </c>
       <c r="L19">
-        <v>1.032416654471619</v>
+        <v>1.028723397766313</v>
       </c>
       <c r="M19">
-        <v>1.048844402400046</v>
+        <v>1.045857439846679</v>
       </c>
       <c r="N19">
-        <v>1.041779794261392</v>
+        <v>1.029866742603406</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047793040092951</v>
+        <v>1.045430595416471</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043894858586066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041280238360381</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.0233745537793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01129052136304</v>
+        <v>1.007371666532032</v>
       </c>
       <c r="D20">
-        <v>1.031077068957228</v>
+        <v>1.027762948820929</v>
       </c>
       <c r="E20">
-        <v>1.016757010182855</v>
+        <v>1.013518711042049</v>
       </c>
       <c r="F20">
-        <v>1.033123514991664</v>
+        <v>1.030460027387191</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049202071714652</v>
+        <v>1.047451332915033</v>
       </c>
       <c r="J20">
-        <v>1.038393044653113</v>
+        <v>1.034621350800427</v>
       </c>
       <c r="K20">
-        <v>1.044594623648232</v>
+        <v>1.041334576378734</v>
       </c>
       <c r="L20">
-        <v>1.030511471277142</v>
+        <v>1.02732794361881</v>
       </c>
       <c r="M20">
-        <v>1.046607902466126</v>
+        <v>1.043987615817902</v>
       </c>
       <c r="N20">
-        <v>1.039867681881867</v>
+        <v>1.029221895534001</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045499944445926</v>
+        <v>1.043426275949705</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042680551377636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04039205203501</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022996439401738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005692841275787</v>
+        <v>1.003096578425111</v>
       </c>
       <c r="D21">
-        <v>1.027294889966996</v>
+        <v>1.025063809361138</v>
       </c>
       <c r="E21">
-        <v>1.012266192792177</v>
+        <v>1.010252723695987</v>
       </c>
       <c r="F21">
-        <v>1.029257026082623</v>
+        <v>1.027472027866626</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04753610066405</v>
+        <v>1.046494953045774</v>
       </c>
       <c r="J21">
-        <v>1.034954460422921</v>
+        <v>1.032465401069492</v>
       </c>
       <c r="K21">
-        <v>1.041776968791376</v>
+        <v>1.039585405482908</v>
       </c>
       <c r="L21">
-        <v>1.027018846036407</v>
+        <v>1.02504242412575</v>
       </c>
       <c r="M21">
-        <v>1.043704534708632</v>
+        <v>1.0419509787288</v>
       </c>
       <c r="N21">
-        <v>1.036424214467658</v>
+        <v>1.028817399231099</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043161593341769</v>
+        <v>1.041773775130707</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04069160931325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039158876350515</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022653051246506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002122677235603</v>
+        <v>1.000359277543096</v>
       </c>
       <c r="D22">
-        <v>1.024896844540801</v>
+        <v>1.023351665413025</v>
       </c>
       <c r="E22">
-        <v>1.009413425381068</v>
+        <v>1.008173582497866</v>
       </c>
       <c r="F22">
-        <v>1.026839941459163</v>
+        <v>1.025611114035773</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046474213047019</v>
+        <v>1.045883218525715</v>
       </c>
       <c r="J22">
-        <v>1.032769985618371</v>
+        <v>1.03108370951151</v>
       </c>
       <c r="K22">
-        <v>1.039990714928651</v>
+        <v>1.038474293840181</v>
       </c>
       <c r="L22">
-        <v>1.024800678930094</v>
+        <v>1.023584839671629</v>
       </c>
       <c r="M22">
-        <v>1.041897808121859</v>
+        <v>1.04069172901563</v>
       </c>
       <c r="N22">
-        <v>1.034236637458322</v>
+        <v>1.028512397056417</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041731694233269</v>
+        <v>1.040777164483458</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039415272469133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038358565204042</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022437630412395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00400442041219</v>
+        <v>1.001753317278234</v>
       </c>
       <c r="D23">
-        <v>1.026153229758855</v>
+        <v>1.024207302381769</v>
       </c>
       <c r="E23">
-        <v>1.010913096714374</v>
+        <v>1.00921729639783</v>
       </c>
       <c r="F23">
-        <v>1.028110704553009</v>
+        <v>1.026556469001332</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047027759987149</v>
+        <v>1.046170776986049</v>
       </c>
       <c r="J23">
-        <v>1.033915055687676</v>
+        <v>1.031759479375258</v>
       </c>
       <c r="K23">
-        <v>1.040922558473129</v>
+        <v>1.039011919085386</v>
       </c>
       <c r="L23">
-        <v>1.025963541727034</v>
+        <v>1.024299707804191</v>
       </c>
       <c r="M23">
-        <v>1.042844711025605</v>
+        <v>1.04131850702012</v>
       </c>
       <c r="N23">
-        <v>1.035383333658467</v>
+        <v>1.028572976227917</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042481102728392</v>
+        <v>1.041273216888701</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040064550834572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038728167335587</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022530363629016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011278247885473</v>
+        <v>1.007369092323216</v>
       </c>
       <c r="D24">
-        <v>1.031034803578195</v>
+        <v>1.02772876976717</v>
       </c>
       <c r="E24">
-        <v>1.016730970807096</v>
+        <v>1.013502476835521</v>
       </c>
       <c r="F24">
-        <v>1.033048702896217</v>
+        <v>1.030391421836496</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04916281086782</v>
+        <v>1.047418484989871</v>
       </c>
       <c r="J24">
-        <v>1.038348957955375</v>
+        <v>1.0345863965302</v>
       </c>
       <c r="K24">
-        <v>1.044537984720105</v>
+        <v>1.041285828019288</v>
       </c>
       <c r="L24">
-        <v>1.030470507151391</v>
+        <v>1.027296551650721</v>
       </c>
       <c r="M24">
-        <v>1.046519281263189</v>
+        <v>1.043905053110592</v>
       </c>
       <c r="N24">
-        <v>1.039823532575961</v>
+        <v>1.029194425260281</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045389264930303</v>
+        <v>1.043320289612089</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042613348563933</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040327699670889</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.0229730649652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01940013453022</v>
+        <v>1.014357859152518</v>
       </c>
       <c r="D25">
-        <v>1.036510560801798</v>
+        <v>1.032242245005032</v>
       </c>
       <c r="E25">
-        <v>1.023256509720112</v>
+        <v>1.01901340648283</v>
       </c>
       <c r="F25">
-        <v>1.038605129877053</v>
+        <v>1.035178201747583</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051512086189881</v>
+        <v>1.049181168263216</v>
       </c>
       <c r="J25">
-        <v>1.043291792499975</v>
+        <v>1.038411500595661</v>
       </c>
       <c r="K25">
-        <v>1.048567353801769</v>
+        <v>1.04435984168898</v>
       </c>
       <c r="L25">
-        <v>1.035504215343269</v>
+        <v>1.031323563470738</v>
       </c>
       <c r="M25">
-        <v>1.050632316005143</v>
+        <v>1.047253906588095</v>
       </c>
       <c r="N25">
-        <v>1.044773386512566</v>
+        <v>1.031244165301155</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048644427080038</v>
+        <v>1.04597066748071</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045459427515138</v>
+        <v>1.042497998162906</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023671374411649</v>
       </c>
     </row>
   </sheetData>
